--- a/Image/어항프로젝트/통합 문서1.xlsx
+++ b/Image/어항프로젝트/통합 문서1.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Fellowship_Portfolio\Fellowship_Portfolio\Image\어항프로젝트\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B23E04C-BB59-46C5-81B0-E40020050AE1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="600" yWindow="75" windowWidth="19395" windowHeight="7845"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -75,7 +81,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -343,6 +349,48 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -355,52 +403,10 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -412,6 +418,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -460,7 +469,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -493,9 +502,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -528,6 +554,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -703,25 +746,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:AZ15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AF5" sqref="AF5"/>
+      <selection activeCell="AF15" sqref="AF15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="16.75" customWidth="1"/>
-    <col min="3" max="3" width="2.125" customWidth="1"/>
-    <col min="4" max="4" width="2.625" customWidth="1"/>
-    <col min="5" max="31" width="2.125" customWidth="1"/>
-    <col min="32" max="32" width="23.125" customWidth="1"/>
+    <col min="2" max="2" width="16.69921875" customWidth="1"/>
+    <col min="3" max="3" width="2.09765625" customWidth="1"/>
+    <col min="4" max="4" width="2.59765625" customWidth="1"/>
+    <col min="5" max="31" width="2.09765625" customWidth="1"/>
+    <col min="32" max="32" width="23.09765625" customWidth="1"/>
     <col min="33" max="33" width="9" customWidth="1"/>
-    <col min="34" max="53" width="3.125" customWidth="1"/>
+    <col min="34" max="53" width="3.09765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:52" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:52" x14ac:dyDescent="0.4">
       <c r="AV2">
         <v>7</v>
       </c>
@@ -738,406 +781,406 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="2:52" ht="18" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:52" x14ac:dyDescent="0.4">
       <c r="AF3" s="1"/>
     </row>
-    <row r="4" spans="2:52" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:52" x14ac:dyDescent="0.4">
       <c r="D4" s="3"/>
-      <c r="E4" s="22" t="s">
+      <c r="E4" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="F4" s="22"/>
-      <c r="G4" s="22"/>
-      <c r="H4" s="22"/>
-      <c r="I4" s="22"/>
-      <c r="J4" s="22"/>
-      <c r="K4" s="23"/>
-      <c r="L4" s="23"/>
-      <c r="M4" s="24"/>
-      <c r="N4" s="18"/>
-      <c r="O4" s="22" t="s">
+      <c r="F4" s="18"/>
+      <c r="G4" s="18"/>
+      <c r="H4" s="18"/>
+      <c r="I4" s="18"/>
+      <c r="J4" s="18"/>
+      <c r="K4" s="16"/>
+      <c r="L4" s="16"/>
+      <c r="M4" s="17"/>
+      <c r="N4" s="14"/>
+      <c r="O4" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="P4" s="22"/>
-      <c r="Q4" s="22"/>
-      <c r="R4" s="22"/>
-      <c r="S4" s="22"/>
-      <c r="T4" s="22"/>
-      <c r="U4" s="21"/>
-      <c r="V4" s="21"/>
+      <c r="P4" s="18"/>
+      <c r="Q4" s="18"/>
+      <c r="R4" s="18"/>
+      <c r="S4" s="18"/>
+      <c r="T4" s="18"/>
+      <c r="U4" s="15"/>
+      <c r="V4" s="15"/>
       <c r="AF4" s="1"/>
     </row>
-    <row r="5" spans="2:52" ht="18.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:52" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="AF5" s="1"/>
     </row>
-    <row r="6" spans="2:52" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:52" x14ac:dyDescent="0.4">
       <c r="B6" s="4"/>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="5" t="s">
+      <c r="D6" s="20"/>
+      <c r="E6" s="20"/>
+      <c r="F6" s="20"/>
+      <c r="G6" s="21"/>
+      <c r="H6" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="I6" s="6"/>
-      <c r="J6" s="6"/>
-      <c r="K6" s="6"/>
-      <c r="L6" s="7"/>
-      <c r="M6" s="5" t="s">
+      <c r="I6" s="20"/>
+      <c r="J6" s="20"/>
+      <c r="K6" s="20"/>
+      <c r="L6" s="21"/>
+      <c r="M6" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="N6" s="6"/>
-      <c r="O6" s="6"/>
-      <c r="P6" s="6"/>
-      <c r="Q6" s="7"/>
-      <c r="R6" s="5" t="s">
+      <c r="N6" s="20"/>
+      <c r="O6" s="20"/>
+      <c r="P6" s="20"/>
+      <c r="Q6" s="21"/>
+      <c r="R6" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="S6" s="6"/>
-      <c r="T6" s="6"/>
-      <c r="U6" s="6"/>
-      <c r="V6" s="7"/>
-      <c r="W6" s="5" t="s">
+      <c r="S6" s="20"/>
+      <c r="T6" s="20"/>
+      <c r="U6" s="20"/>
+      <c r="V6" s="21"/>
+      <c r="W6" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="X6" s="6"/>
-      <c r="Y6" s="6"/>
-      <c r="Z6" s="6"/>
-      <c r="AA6" s="7"/>
-      <c r="AB6" s="5" t="s">
+      <c r="X6" s="20"/>
+      <c r="Y6" s="20"/>
+      <c r="Z6" s="20"/>
+      <c r="AA6" s="21"/>
+      <c r="AB6" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="AC6" s="6"/>
-      <c r="AD6" s="6"/>
-      <c r="AE6" s="8"/>
+      <c r="AC6" s="20"/>
+      <c r="AD6" s="20"/>
+      <c r="AE6" s="22"/>
       <c r="AF6" s="2"/>
     </row>
-    <row r="7" spans="2:52" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B7" s="14" t="s">
+    <row r="7" spans="2:52" x14ac:dyDescent="0.4">
+      <c r="B7" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="10"/>
-      <c r="H7" s="10"/>
-      <c r="I7" s="10"/>
-      <c r="J7" s="10"/>
-      <c r="K7" s="10"/>
-      <c r="L7" s="10"/>
-      <c r="M7" s="10"/>
-      <c r="N7" s="10"/>
-      <c r="O7" s="10"/>
-      <c r="P7" s="10"/>
-      <c r="Q7" s="10"/>
-      <c r="R7" s="10"/>
-      <c r="S7" s="10"/>
-      <c r="T7" s="10"/>
-      <c r="U7" s="10"/>
-      <c r="V7" s="10"/>
-      <c r="W7" s="10"/>
-      <c r="X7" s="10"/>
-      <c r="Y7" s="10"/>
-      <c r="Z7" s="10"/>
-      <c r="AA7" s="10"/>
-      <c r="AB7" s="10"/>
-      <c r="AC7" s="10"/>
-      <c r="AD7" s="10"/>
-      <c r="AE7" s="11"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="6"/>
+      <c r="L7" s="6"/>
+      <c r="M7" s="6"/>
+      <c r="N7" s="6"/>
+      <c r="O7" s="6"/>
+      <c r="P7" s="6"/>
+      <c r="Q7" s="6"/>
+      <c r="R7" s="6"/>
+      <c r="S7" s="6"/>
+      <c r="T7" s="6"/>
+      <c r="U7" s="6"/>
+      <c r="V7" s="6"/>
+      <c r="W7" s="6"/>
+      <c r="X7" s="6"/>
+      <c r="Y7" s="6"/>
+      <c r="Z7" s="6"/>
+      <c r="AA7" s="6"/>
+      <c r="AB7" s="6"/>
+      <c r="AC7" s="6"/>
+      <c r="AD7" s="6"/>
+      <c r="AE7" s="7"/>
       <c r="AF7" s="2"/>
     </row>
-    <row r="8" spans="2:52" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B8" s="14" t="s">
+    <row r="8" spans="2:52" x14ac:dyDescent="0.4">
+      <c r="B8" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="10"/>
-      <c r="I8" s="10"/>
-      <c r="J8" s="10"/>
-      <c r="K8" s="10"/>
-      <c r="L8" s="10"/>
-      <c r="M8" s="10"/>
-      <c r="N8" s="10"/>
-      <c r="O8" s="10"/>
-      <c r="P8" s="10"/>
-      <c r="Q8" s="10"/>
-      <c r="R8" s="10"/>
-      <c r="S8" s="10"/>
-      <c r="T8" s="10"/>
-      <c r="U8" s="10"/>
-      <c r="V8" s="10"/>
-      <c r="W8" s="10"/>
-      <c r="X8" s="10"/>
-      <c r="Y8" s="10"/>
-      <c r="Z8" s="10"/>
-      <c r="AA8" s="10"/>
-      <c r="AB8" s="10"/>
-      <c r="AC8" s="10"/>
-      <c r="AD8" s="10"/>
-      <c r="AE8" s="11"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="6"/>
+      <c r="L8" s="6"/>
+      <c r="M8" s="6"/>
+      <c r="N8" s="6"/>
+      <c r="O8" s="6"/>
+      <c r="P8" s="6"/>
+      <c r="Q8" s="6"/>
+      <c r="R8" s="6"/>
+      <c r="S8" s="6"/>
+      <c r="T8" s="6"/>
+      <c r="U8" s="6"/>
+      <c r="V8" s="6"/>
+      <c r="W8" s="6"/>
+      <c r="X8" s="6"/>
+      <c r="Y8" s="6"/>
+      <c r="Z8" s="6"/>
+      <c r="AA8" s="6"/>
+      <c r="AB8" s="6"/>
+      <c r="AC8" s="6"/>
+      <c r="AD8" s="6"/>
+      <c r="AE8" s="7"/>
       <c r="AF8" s="1"/>
     </row>
-    <row r="9" spans="2:52" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B9" s="14" t="s">
+    <row r="9" spans="2:52" x14ac:dyDescent="0.4">
+      <c r="B9" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="9"/>
-      <c r="I9" s="9"/>
-      <c r="J9" s="9"/>
-      <c r="K9" s="9"/>
-      <c r="L9" s="9"/>
-      <c r="M9" s="9"/>
-      <c r="N9" s="9"/>
-      <c r="O9" s="9"/>
-      <c r="P9" s="9"/>
-      <c r="Q9" s="9"/>
-      <c r="R9" s="9"/>
-      <c r="S9" s="9"/>
-      <c r="T9" s="9"/>
-      <c r="U9" s="9"/>
-      <c r="V9" s="18"/>
-      <c r="W9" s="18"/>
-      <c r="X9" s="18"/>
-      <c r="Y9" s="18"/>
-      <c r="Z9" s="18"/>
-      <c r="AA9" s="18"/>
-      <c r="AB9" s="10"/>
-      <c r="AC9" s="10"/>
-      <c r="AD9" s="10"/>
-      <c r="AE9" s="11"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="5"/>
+      <c r="L9" s="5"/>
+      <c r="M9" s="5"/>
+      <c r="N9" s="5"/>
+      <c r="O9" s="5"/>
+      <c r="P9" s="5"/>
+      <c r="Q9" s="5"/>
+      <c r="R9" s="5"/>
+      <c r="S9" s="5"/>
+      <c r="T9" s="5"/>
+      <c r="U9" s="5"/>
+      <c r="V9" s="5"/>
+      <c r="W9" s="5"/>
+      <c r="X9" s="5"/>
+      <c r="Y9" s="5"/>
+      <c r="Z9" s="5"/>
+      <c r="AA9" s="5"/>
+      <c r="AB9" s="6"/>
+      <c r="AC9" s="6"/>
+      <c r="AD9" s="6"/>
+      <c r="AE9" s="7"/>
       <c r="AF9" s="2"/>
     </row>
-    <row r="10" spans="2:52" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B10" s="17" t="s">
+    <row r="10" spans="2:52" x14ac:dyDescent="0.4">
+      <c r="B10" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="10"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="10"/>
-      <c r="H10" s="10"/>
-      <c r="I10" s="10"/>
-      <c r="J10" s="9"/>
-      <c r="K10" s="9"/>
-      <c r="L10" s="9"/>
-      <c r="M10" s="10"/>
-      <c r="N10" s="10"/>
-      <c r="O10" s="10"/>
-      <c r="P10" s="10"/>
-      <c r="Q10" s="10"/>
-      <c r="R10" s="10"/>
-      <c r="S10" s="10"/>
-      <c r="T10" s="10"/>
-      <c r="U10" s="10"/>
-      <c r="V10" s="18"/>
-      <c r="W10" s="18"/>
-      <c r="X10" s="18"/>
-      <c r="Y10" s="18"/>
-      <c r="Z10" s="10"/>
-      <c r="AA10" s="10"/>
-      <c r="AB10" s="10"/>
-      <c r="AC10" s="10"/>
-      <c r="AD10" s="10"/>
-      <c r="AE10" s="11"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="5"/>
+      <c r="L10" s="5"/>
+      <c r="M10" s="6"/>
+      <c r="N10" s="6"/>
+      <c r="O10" s="6"/>
+      <c r="P10" s="6"/>
+      <c r="Q10" s="6"/>
+      <c r="R10" s="6"/>
+      <c r="S10" s="6"/>
+      <c r="T10" s="6"/>
+      <c r="U10" s="6"/>
+      <c r="V10" s="5"/>
+      <c r="W10" s="5"/>
+      <c r="X10" s="5"/>
+      <c r="Y10" s="5"/>
+      <c r="Z10" s="6"/>
+      <c r="AA10" s="6"/>
+      <c r="AB10" s="6"/>
+      <c r="AC10" s="6"/>
+      <c r="AD10" s="6"/>
+      <c r="AE10" s="7"/>
       <c r="AF10" s="2"/>
     </row>
-    <row r="11" spans="2:52" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B11" s="17" t="s">
+    <row r="11" spans="2:52" x14ac:dyDescent="0.4">
+      <c r="B11" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="10"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="9"/>
-      <c r="G11" s="9"/>
-      <c r="H11" s="9"/>
-      <c r="I11" s="9"/>
-      <c r="J11" s="9"/>
-      <c r="K11" s="9"/>
-      <c r="L11" s="12"/>
-      <c r="M11" s="12"/>
-      <c r="N11" s="12"/>
-      <c r="O11" s="12"/>
-      <c r="P11" s="12"/>
-      <c r="Q11" s="12"/>
-      <c r="R11" s="12"/>
-      <c r="S11" s="12"/>
-      <c r="T11" s="12"/>
-      <c r="U11" s="12"/>
-      <c r="V11" s="10"/>
-      <c r="W11" s="18"/>
-      <c r="X11" s="18"/>
-      <c r="Y11" s="18"/>
-      <c r="Z11" s="18"/>
-      <c r="AA11" s="18"/>
-      <c r="AB11" s="10"/>
-      <c r="AC11" s="10"/>
-      <c r="AD11" s="10"/>
-      <c r="AE11" s="11"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="5"/>
+      <c r="L11" s="8"/>
+      <c r="M11" s="8"/>
+      <c r="N11" s="8"/>
+      <c r="O11" s="8"/>
+      <c r="P11" s="8"/>
+      <c r="Q11" s="8"/>
+      <c r="R11" s="8"/>
+      <c r="S11" s="8"/>
+      <c r="T11" s="8"/>
+      <c r="U11" s="8"/>
+      <c r="V11" s="6"/>
+      <c r="W11" s="5"/>
+      <c r="X11" s="5"/>
+      <c r="Y11" s="5"/>
+      <c r="Z11" s="5"/>
+      <c r="AA11" s="5"/>
+      <c r="AB11" s="6"/>
+      <c r="AC11" s="6"/>
+      <c r="AD11" s="6"/>
+      <c r="AE11" s="7"/>
       <c r="AF11" s="1"/>
     </row>
-    <row r="12" spans="2:52" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B12" s="17" t="s">
+    <row r="12" spans="2:52" x14ac:dyDescent="0.4">
+      <c r="B12" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="10"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="10"/>
-      <c r="I12" s="10"/>
-      <c r="J12" s="10"/>
-      <c r="K12" s="9"/>
-      <c r="L12" s="9"/>
-      <c r="M12" s="9"/>
-      <c r="N12" s="9"/>
-      <c r="O12" s="9"/>
-      <c r="P12" s="9"/>
-      <c r="Q12" s="9"/>
-      <c r="R12" s="9"/>
-      <c r="S12" s="9"/>
-      <c r="T12" s="9"/>
-      <c r="U12" s="9"/>
-      <c r="V12" s="18"/>
-      <c r="W12" s="18"/>
-      <c r="X12" s="18"/>
-      <c r="Y12" s="18"/>
-      <c r="Z12" s="18"/>
-      <c r="AA12" s="18"/>
-      <c r="AB12" s="18"/>
-      <c r="AC12" s="18"/>
-      <c r="AD12" s="18"/>
-      <c r="AE12" s="11"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="6"/>
+      <c r="K12" s="5"/>
+      <c r="L12" s="5"/>
+      <c r="M12" s="5"/>
+      <c r="N12" s="5"/>
+      <c r="O12" s="5"/>
+      <c r="P12" s="5"/>
+      <c r="Q12" s="5"/>
+      <c r="R12" s="5"/>
+      <c r="S12" s="5"/>
+      <c r="T12" s="5"/>
+      <c r="U12" s="5"/>
+      <c r="V12" s="5"/>
+      <c r="W12" s="5"/>
+      <c r="X12" s="5"/>
+      <c r="Y12" s="5"/>
+      <c r="Z12" s="5"/>
+      <c r="AA12" s="5"/>
+      <c r="AB12" s="5"/>
+      <c r="AC12" s="5"/>
+      <c r="AD12" s="5"/>
+      <c r="AE12" s="7"/>
       <c r="AF12" s="2"/>
     </row>
-    <row r="13" spans="2:52" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B13" s="17" t="s">
+    <row r="13" spans="2:52" x14ac:dyDescent="0.4">
+      <c r="B13" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="10"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="9"/>
-      <c r="H13" s="9"/>
-      <c r="I13" s="9"/>
-      <c r="J13" s="9"/>
-      <c r="K13" s="9"/>
-      <c r="L13" s="9"/>
-      <c r="M13" s="9"/>
-      <c r="N13" s="9"/>
-      <c r="O13" s="9"/>
-      <c r="P13" s="9"/>
-      <c r="Q13" s="9"/>
-      <c r="R13" s="10"/>
-      <c r="S13" s="10"/>
-      <c r="T13" s="10"/>
-      <c r="U13" s="10"/>
-      <c r="V13" s="10"/>
-      <c r="W13" s="10"/>
-      <c r="X13" s="10"/>
-      <c r="Y13" s="10"/>
-      <c r="Z13" s="10"/>
-      <c r="AA13" s="10"/>
-      <c r="AB13" s="10"/>
-      <c r="AC13" s="10"/>
-      <c r="AD13" s="10"/>
-      <c r="AE13" s="11"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="5"/>
+      <c r="J13" s="5"/>
+      <c r="K13" s="5"/>
+      <c r="L13" s="5"/>
+      <c r="M13" s="5"/>
+      <c r="N13" s="5"/>
+      <c r="O13" s="5"/>
+      <c r="P13" s="5"/>
+      <c r="Q13" s="5"/>
+      <c r="R13" s="6"/>
+      <c r="S13" s="6"/>
+      <c r="T13" s="6"/>
+      <c r="U13" s="6"/>
+      <c r="V13" s="6"/>
+      <c r="W13" s="6"/>
+      <c r="X13" s="6"/>
+      <c r="Y13" s="6"/>
+      <c r="Z13" s="6"/>
+      <c r="AA13" s="6"/>
+      <c r="AB13" s="6"/>
+      <c r="AC13" s="6"/>
+      <c r="AD13" s="6"/>
+      <c r="AE13" s="7"/>
       <c r="AF13" s="1"/>
     </row>
-    <row r="14" spans="2:52" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B14" s="15" t="s">
+    <row r="14" spans="2:52" x14ac:dyDescent="0.4">
+      <c r="B14" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="C14" s="10"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="10"/>
-      <c r="G14" s="10"/>
-      <c r="H14" s="10"/>
-      <c r="I14" s="10"/>
-      <c r="J14" s="10"/>
-      <c r="K14" s="10"/>
-      <c r="L14" s="9"/>
-      <c r="M14" s="9"/>
-      <c r="N14" s="9"/>
-      <c r="O14" s="9"/>
-      <c r="P14" s="9"/>
-      <c r="Q14" s="9"/>
-      <c r="R14" s="9"/>
-      <c r="S14" s="9"/>
-      <c r="T14" s="9"/>
-      <c r="U14" s="9"/>
-      <c r="V14" s="10"/>
-      <c r="W14" s="10"/>
-      <c r="X14" s="10"/>
-      <c r="Y14" s="18"/>
-      <c r="Z14" s="18"/>
-      <c r="AA14" s="18"/>
-      <c r="AB14" s="18"/>
-      <c r="AC14" s="18"/>
-      <c r="AD14" s="18"/>
-      <c r="AE14" s="11"/>
-    </row>
-    <row r="15" spans="2:52" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="16" t="s">
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="6"/>
+      <c r="J14" s="6"/>
+      <c r="K14" s="6"/>
+      <c r="L14" s="5"/>
+      <c r="M14" s="5"/>
+      <c r="N14" s="5"/>
+      <c r="O14" s="5"/>
+      <c r="P14" s="5"/>
+      <c r="Q14" s="5"/>
+      <c r="R14" s="5"/>
+      <c r="S14" s="5"/>
+      <c r="T14" s="5"/>
+      <c r="U14" s="5"/>
+      <c r="V14" s="6"/>
+      <c r="W14" s="6"/>
+      <c r="X14" s="6"/>
+      <c r="Y14" s="5"/>
+      <c r="Z14" s="5"/>
+      <c r="AA14" s="5"/>
+      <c r="AB14" s="5"/>
+      <c r="AC14" s="5"/>
+      <c r="AD14" s="5"/>
+      <c r="AE14" s="7"/>
+    </row>
+    <row r="15" spans="2:52" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B15" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="C15" s="13"/>
-      <c r="D15" s="13"/>
-      <c r="E15" s="13"/>
-      <c r="F15" s="13"/>
-      <c r="G15" s="13"/>
-      <c r="H15" s="13"/>
-      <c r="I15" s="13"/>
-      <c r="J15" s="13"/>
-      <c r="K15" s="13"/>
-      <c r="L15" s="13"/>
-      <c r="M15" s="13"/>
-      <c r="N15" s="13"/>
-      <c r="O15" s="13"/>
-      <c r="P15" s="13"/>
-      <c r="Q15" s="13"/>
-      <c r="R15" s="13"/>
-      <c r="S15" s="13"/>
-      <c r="T15" s="13"/>
-      <c r="U15" s="13"/>
-      <c r="V15" s="13"/>
-      <c r="W15" s="13"/>
-      <c r="X15" s="13"/>
-      <c r="Y15" s="13"/>
-      <c r="Z15" s="13"/>
-      <c r="AA15" s="13"/>
-      <c r="AB15" s="19"/>
-      <c r="AC15" s="19"/>
-      <c r="AD15" s="19"/>
-      <c r="AE15" s="20"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="9"/>
+      <c r="I15" s="9"/>
+      <c r="J15" s="9"/>
+      <c r="K15" s="9"/>
+      <c r="L15" s="9"/>
+      <c r="M15" s="9"/>
+      <c r="N15" s="9"/>
+      <c r="O15" s="9"/>
+      <c r="P15" s="9"/>
+      <c r="Q15" s="9"/>
+      <c r="R15" s="9"/>
+      <c r="S15" s="9"/>
+      <c r="T15" s="9"/>
+      <c r="U15" s="9"/>
+      <c r="V15" s="9"/>
+      <c r="W15" s="9"/>
+      <c r="X15" s="9"/>
+      <c r="Y15" s="9"/>
+      <c r="Z15" s="9"/>
+      <c r="AA15" s="9"/>
+      <c r="AB15" s="23"/>
+      <c r="AC15" s="23"/>
+      <c r="AD15" s="23"/>
+      <c r="AE15" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="8">
+    <mergeCell ref="W6:AA6"/>
+    <mergeCell ref="AB6:AE6"/>
     <mergeCell ref="O4:T4"/>
     <mergeCell ref="E4:J4"/>
     <mergeCell ref="C6:G6"/>
     <mergeCell ref="H6:L6"/>
     <mergeCell ref="M6:Q6"/>
     <mergeCell ref="R6:V6"/>
-    <mergeCell ref="W6:AA6"/>
-    <mergeCell ref="AB6:AE6"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1146,12 +1189,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1159,12 +1202,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
